--- a/src/analysis_examples/circadb/results_lomb/cosinor_10356084_irs1_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10356084_irs1_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.22780761005737138, 0.34456319653721723]</t>
+          <t>[0.22786155847280998, 0.34450924812177863]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.380296987818497e-09</v>
+        <v>1.357988166361679e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>1.380296987818497e-09</v>
+        <v>1.357988166361679e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-1.698158191129618</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.9245792832802335, -1.4717370989790028]</t>
+          <t>[-1.9120003337163105, -1.4843160485429259]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>5.055955654142963e-13</v>
+        <v>1.660893644839234e-13</v>
       </c>
       <c r="R2" t="n">
-        <v>5.055955654142963e-13</v>
+        <v>1.660893644839234e-13</v>
       </c>
       <c r="S2" t="n">
         <v>0.3999694952999119</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.36410357645164787, 0.435835414148176]</t>
+          <t>[0.3641128388380593, 0.4358261517617646]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>6.164864864864985</v>
       </c>
       <c r="X2" t="n">
-        <v>5.342882882882988</v>
+        <v>5.388548548548655</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.986846846846981</v>
+        <v>6.941181181181315</v>
       </c>
     </row>
   </sheetData>
